--- a/biology/Botanique/Pinus_merkusii/Pinus_merkusii.xlsx
+++ b/biology/Botanique/Pinus_merkusii/Pinus_merkusii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pinus merkusii, communément appelé Pin de Sumatra, est une espèce de pins qui se rencontre en Asie du Sud-Est. On le trouve principalement dans les montagnes du Nord de Sumatra, sur les montagnes Kerinci et Talang dans le centre de Sumatra, et aux Philippines.
 Dans le centre de Sumatra, entre les latitudes 1°40' et 2°06' S, il s'agit des seuls pins au sud de l'équateur. On le trouve le plus souvent aux altitudes modérées, principalement entre 400 et 1 500 m, mais parfois à partir de 90 m et jusqu'à 2 000 m.
@@ -514,9 +526,11 @@
           <t>Liste des variétés et sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (12 septembre 2020)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (12 septembre 2020) :
 sous-espèce Pinus merkusii subsp. latteri (Mason) D.Z. Li
 variété Pinus merkusii var. latteri (Mason) Silba
 variété Pinus merkusii var. tonkinensis (A. Chev.) Gaussen ex Bui</t>
